--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95829,7 +95829,7 @@
         <v>22</v>
       </c>
       <c r="O1703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1703" t="n">
         <v>0</v>
@@ -96229,7 +96229,711 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45442.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>7445870</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45442.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>8013401</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45442.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>100.5999984741211</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>101.5999984741211</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>100.3499984741211</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>7332569</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45442.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>101.9000015258789</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>101.25</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>11032716</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45442.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>101.1999969482422</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>101.4499969482422</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>100.4499969482422</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>100.8000030517578</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>100.8000030517578</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>12594973</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45442.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>100.9499969482422</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>101.3000030517578</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>100.75</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>100.9000015258789</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>100.9000015258789</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>6606474</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45443.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>103.75</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>101.0500030517578</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45443.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>104.0500030517578</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>104</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>104</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>21677046</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45443.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>104.0999984741211</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>105.1999969482422</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>103.5999984741211</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>104.1500015258789</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>104.1500015258789</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>28232021</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45443.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>104.1999969482422</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>105.1500015258789</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>103.9000015258789</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>105.0500030517578</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>105.0500030517578</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>17241350</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45443.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>105.0500030517578</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>105.75</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>104.8000030517578</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>105.1500015258789</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>105.1500015258789</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>24964959</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45443.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>105.1500015258789</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>107.5500030517578</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>103.3499984741211</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>105.9000015258789</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>105.9000015258789</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>257484829</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45443.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>105.9499969482422</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>110.4499969482422</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>105.5500030517578</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>107.25</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>107.25</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>212971549</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96501,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96555,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96609,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96663,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96717,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96771,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96825,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96879,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96933,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1710"/>
+  <dimension ref="A1:R1714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,225 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>113.5500030517578</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>111.5999984741211</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>112.1999969482422</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>112.1999969482422</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>22080334</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>112.1999969482422</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>112.1999969482422</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>112.8499984741211</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>112.8499984741211</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>10846296</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>112.8499984741211</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>113.75</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>112.6999969482422</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>113.3499984741211</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>113.3499984741211</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>12522948</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>113.3499984741211</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>113.6999969482422</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>113.1500015258789</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>113.4499969482422</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>113.4499969482422</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>4954597</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
@@ -96285,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96339,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96393,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96447,7 +96453,117 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45446.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>113.3000030517578</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>112.8000030517578</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>113.3000030517578</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>113.3000030517578</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>12464171</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>113.3499984741211</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>113</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>113.1500015258789</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>113.1500015258789</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>10967797</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -3659,7 +3659,7 @@
         <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>2</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>2</v>
@@ -96221,7 +96221,7 @@
         <v>23</v>
       </c>
       <c r="O1710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96568,6 +96568,330 @@
       <c r="R1716" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>110.0999984741211</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>110.0999984741211</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>102</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>79710232</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>41175324</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>103.4499969482422</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>92.44999694824219</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>93.59999847412109</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>44526744</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45447.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>91.30000305175781</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>100.75</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>100.75</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>39041981</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>100.8000030517578</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>105</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>100.4000015258789</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>27823239</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>97.44999694824219</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>98.19999694824219</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>98.19999694824219</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>21143886</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96499,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96553,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96569,6 +96569,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>102.9499969482422</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>103.6999969482422</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>101.3000030517578</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>103.1999969482422</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>103.1999969482422</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>7572517</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1717"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96621,7 +96621,333 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>101.9000015258789</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>7558994</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>102.4499969482422</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>102.5999984741211</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>7507230</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>14985639</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>102.3499984741211</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>103.8499984741211</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>103.4499969482422</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>103.4499969482422</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>15082721</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>103</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>103.0500030517578</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>103.0500030517578</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>10471180</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45450.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>103.0500030517578</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>103.4499969482422</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>103</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>103.1999969482422</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>103.1999969482422</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>5569557</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1714"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96229,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96283,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96337,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96391,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96445,7 +96453,117 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45453.59375</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>103.4100036621094</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>101.6699981689453</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>102.3000030517578</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>102.3000030517578</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>12020144</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45453.63541666666</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>102.3099975585938</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>102.3099975585938</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>101.4000015258789</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>101.9800033569336</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>101.9800033569336</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>6585819</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96221,7 +96221,7 @@
         <v>24</v>
       </c>
       <c r="O1710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1710" t="n">
         <v>0</v>
@@ -96509,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96563,7 +96565,387 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>102.6800003051758</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>102.6800003051758</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>101.3899993896484</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>22851179</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>102.0800018310547</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>102.120002746582</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>101.8499984741211</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>7701023</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>101.879997253418</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>102.1399993896484</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>101.6800003051758</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>101.9100036621094</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>101.9100036621094</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>6215814</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>101.9100036621094</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>101.9899978637695</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>101.9400024414062</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>101.9400024414062</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>3586902</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>101.9499969482422</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>102.8499984741211</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>101.8000030517578</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>14286635</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>102.0599975585938</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>101.8199996948242</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>102.2799987792969</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>102.2799987792969</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>10467119</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45454.63541666666</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>102.0699996948242</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>102.3899993896484</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>102.3899993896484</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>3077843</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1723"/>
+  <dimension ref="A1:R1730"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96613,7 +96613,7 @@
         <v>24</v>
       </c>
       <c r="O1717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1717" t="n">
         <v>0</v>
@@ -96621,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96675,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96729,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96783,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96837,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96891,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96945,7 +96957,387 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>103.9499969482422</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>102.5100021362305</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>103.2900009155273</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>103.2900009155273</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>103.4100036621094</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>102.8600006103516</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>103.129997253418</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>103.129997253418</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>5880834</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>103.0899963378906</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>103.2900009155273</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>102.7799987792969</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>102.8499984741211</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>102.8499984741211</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>3822007</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>102.8600006103516</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>103</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>102.7399978637695</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>2598193</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>102.8300018310547</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>102.9400024414062</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>102.75</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>102.8899993896484</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>102.8899993896484</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>2390765</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>102.8099975585938</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>103.3000030517578</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>102.5400009155273</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>103.2300033569336</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>103.2300033569336</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>9709163</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45455.63541666666</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>103.2300033569336</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>103.2600021362305</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>103.0500030517578</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>103.1699981689453</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>103.1699981689453</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>3385425</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1730"/>
+  <dimension ref="A1:R1737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97013,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97067,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97121,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97175,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97229,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97283,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97337,7 +97349,387 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>103.5999984741211</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>103.9800033569336</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>102.4199981689453</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>102.7699966430664</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>102.7799987792969</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>102.120002746582</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>4570908</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45456.46875</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>102.2300033569336</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>102.5400009155273</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>101.870002746582</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>5525099</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>102.1699981689453</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>102.5500030517578</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>2665683</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>102.25</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>102.0199966430664</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>102.5699996948242</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>102.5699996948242</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>4638870</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>102.5800018310547</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>103.0800018310547</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>102.1600036621094</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>102.370002746582</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>102.370002746582</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>6513691</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45456.63541666666</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>102.370002746582</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>102.3000030517578</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>102.3000030517578</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>3515361</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1737"/>
+  <dimension ref="A1:R1744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97405,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97459,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97513,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97567,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97621,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97675,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97729,7 +97741,387 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>102.5599975585938</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>101.6800003051758</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>102.5500030517578</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>102.5500030517578</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>102.5500030517578</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>102.6699981689453</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>102.2799987792969</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>102.2799987792969</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>3573334</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>102.2799987792969</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>104.2799987792969</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>102.2699966430664</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>103.120002746582</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>103.120002746582</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>15983739</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>103.1999969482422</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>103.25</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>102.8499984741211</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>102.9300003051758</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>102.9300003051758</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>3613908</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>102.9800033569336</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>103.1999969482422</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>102.5999984741211</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>102.7699966430664</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>102.7699966430664</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>4328914</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>102.7699966430664</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>102.9300003051758</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>102.4000015258789</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>5081970</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45457.63541666666</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>102.6999969482422</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>102.3199996948242</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>102.5899963378906</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>3118709</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -97797,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97851,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97905,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97959,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98013,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98067,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98121,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1744"/>
+  <dimension ref="A1:R1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97789,7 +97789,7 @@
         <v>24</v>
       </c>
       <c r="O1738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1738" t="n">
         <v>0</v>
@@ -97901,7 +97901,7 @@
         <v>24</v>
       </c>
       <c r="O1740" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1740" t="n">
         <v>0</v>
@@ -98136,6 +98136,384 @@
       <c r="R1744" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>103.0999984741211</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>103.0999984741211</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>101.9199981689453</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>102.0100021362305</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>102.0100021362305</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>102.0299987792969</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>102.3899993896484</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>101.9000015258789</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>102.1999969482422</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>4373304</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>102.1600036621094</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>102.2399978637695</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>101.9599990844727</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>102.0299987792969</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>102.0299987792969</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>2927419</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>102.0500030517578</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>102.1500015258789</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>101.9199981689453</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>102</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>102</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>2749050</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45461.55208333334</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>102</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>102.2600021362305</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>101.9499969482422</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>102.1100006103516</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>102.1100006103516</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>2795186</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>102.120002746582</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>102.1800003051758</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>4975494</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>101.8899993896484</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>101.2699966430664</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>4178123</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1751"/>
+  <dimension ref="A1:R1758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98189,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98243,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98297,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98351,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98405,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98459,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98513,7 +98525,387 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>102</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>102.0699996948242</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>99.19999694824219</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>100.3899993896484</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>100.3899993896484</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>13510786</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>100.370002746582</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>100.4199981689453</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>99.68000030517578</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>100.0199966430664</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>100.0199966430664</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>6188716</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>100.1699981689453</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>100.0699996948242</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>100.0699996948242</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>3653766</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>100.1600036621094</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>99.97000122070312</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>99.97000122070312</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>3411161</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45462.55208333334</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>99.97000122070312</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>100.9800033569336</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>99.87000274658203</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>100.7799987792969</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>100.7799987792969</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>5628514</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>100.7600021362305</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>100.8000030517578</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>100.0100021362305</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>100.2300033569336</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>100.2300033569336</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>4506384</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>100.2200012207031</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>100.2300033569336</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>2324498</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1758"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98573,7 +98573,7 @@
         <v>25</v>
       </c>
       <c r="O1752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1752" t="n">
         <v>0</v>
@@ -98581,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98635,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98689,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98743,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98797,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98851,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98905,7 +98917,1143 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>100.9199981689453</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>100.5800018310547</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>100.5800018310547</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>100.5599975585938</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>101.6800003051758</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>100.5400009155273</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>100.8099975585938</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>100.8099975585938</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>10580940</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>100.8099975585938</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>100.879997253418</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>2788985</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>100.6399993896484</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>100.8000030517578</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>100.4300003051758</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>2172778</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>100.6399993896484</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>100.8199996948242</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>100.1100006103516</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>100.1999969482422</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>100.1999969482422</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>3325828</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>100.2200012207031</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>100.629997253418</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>99.98000335693359</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>100.1500015258789</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>100.1500015258789</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>7325065</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45463.63541666666</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>100.1500015258789</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>100.3600006103516</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>100.0599975585938</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>2532982</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>100.3000030517578</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>101.0699996948242</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>99.97000122070312</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>100.4400024414062</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>100.4400024414062</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>13465384</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>100.4300003051758</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>100.879997253418</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>100.0400009155273</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>100.3499984741211</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>100.3499984741211</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>5323417</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>100.4100036621094</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>100.4000015258789</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>100.6399993896484</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>100.6399993896484</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>8308237</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>100.6600036621094</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>100.7200012207031</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>100</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>100.2200012207031</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>100.2200012207031</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>4463697</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>100.1999969482422</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>100.4400024414062</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>100.0800018310547</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>100.3000030517578</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>100.3000030517578</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>2749045</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>100.3000030517578</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>100.9400024414062</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>100.0599975585938</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>100.6399993896484</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>100.6399993896484</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>7923984</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45464.63541666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>100.620002746582</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>100.5999984741211</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>100.8499984741211</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>5066547</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>100.7799987792969</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>99.51999664306641</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>100.3199996948242</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>100.3199996948242</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>100.3000030517578</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>100.3300018310547</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>100.0699996948242</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>100.0699996948242</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>3068802</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>100.2799987792969</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>3205370</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>100.2300033569336</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>100.0599975585938</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>1870464</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>101.0599975585938</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>100.0699996948242</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>100.5500030517578</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>100.5500030517578</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>15144053</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>100.5899963378906</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>99.90000152587891</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>99.91000366210938</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>99.91000366210938</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>12734327</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>99.91000366210938</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>99.91999816894531</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>99.59999847412109</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>99.80999755859375</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>99.80999755859375</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>2865194</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98973,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99027,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99081,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99135,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99189,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99243,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99297,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99351,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99405,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99459,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99513,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99567,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99621,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99675,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99729,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99783,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99837,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99891,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99945,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -99999,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100053,7 +100093,765 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>100.2099990844727</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>100.5999984741211</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>5911061</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>100.129997253418</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>2196402</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>99.88999938964844</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>99.51000213623047</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>99.68000030517578</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>99.68000030517578</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>2574988</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>99.70999908447266</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>100.2699966430664</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>99.59999847412109</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>99.73999786376953</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>99.73999786376953</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>2982154</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>99.98000335693359</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>99.59999847412109</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>2411086</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>99.76999664306641</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>99.59999847412109</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>4976946</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>99.97000122070312</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>99.97000122070312</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>99.62000274658203</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>99.79000091552734</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>99.79000091552734</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>2718027</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>100.1699981689453</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>100.1699981689453</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>99.31999969482422</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>99.41999816894531</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>99.41999816894531</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>5861637</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>99.34999847412109</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>99.80000305175781</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>99.34999847412109</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>99.55999755859375</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>99.55999755859375</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>1986755</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>99.51999664306641</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>100.5400009155273</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>99.12000274658203</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>100.0100021362305</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>100.0100021362305</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>9252327</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>100.0100021362305</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>100.1100006103516</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>99.80999755859375</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>99.80999755859375</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>4728153</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>99.83999633789062</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>100.1800003051758</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>99.70999908447266</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>100.0199966430664</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>100.0199966430664</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>2979792</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>100.1600036621094</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>99.70999908447266</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>99.70999908447266</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>99.70999908447266</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>4731713</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>99.20999908447266</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>2187322</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1793"/>
+  <dimension ref="A1:R1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100149,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100203,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100257,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100311,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100365,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100419,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100473,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100527,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100581,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100635,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100689,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100743,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100797,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100851,7 +100877,387 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>99.69999694824219</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>100.3000030517578</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>99.63999938964844</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>99.72000122070312</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>99.72000122070312</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>8181231</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>99.68000030517578</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>99.86000061035156</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>99.22000122070312</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>99.37999725341797</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>99.37999725341797</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>4033598</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>99.38999938964844</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>99.80999755859375</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>99.27999877929688</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>99.55000305175781</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>99.55000305175781</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>2912545</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>99.52999877929688</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>99.58000183105469</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>99.05999755859375</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>99.11000061035156</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>99.11000061035156</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>2369554</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>99.12999725341797</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>99.15000152587891</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>98.05000305175781</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>98.27999877929688</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>98.27999877929688</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>4617325</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>98.30000305175781</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>99.43000030517578</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>98.19000244140625</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>11289312</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>99.05000305175781</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>98.30000305175781</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>98.58000183105469</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>98.58000183105469</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>5547063</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1800"/>
+  <dimension ref="A1:R1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100933,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100987,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101041,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101095,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101149,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101203,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101257,7 +101269,387 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>99</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>102.8000030517578</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>98.69999694824219</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>101.2799987792969</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>101.2799987792969</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>101.2200012207031</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>101.6999969482422</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>100.6600036621094</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>101.0299987792969</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>101.0299987792969</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>5806768</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>101.0699996948242</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>101.7300033569336</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>100.7300033569336</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>100.7300033569336</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>5115211</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>100.7300033569336</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>101.3000030517578</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>100.2600021362305</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>101.3000030517578</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>101.3000030517578</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>7810036</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>101.3000030517578</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>100.879997253418</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>101.0500030517578</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>101.0500030517578</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>3526102</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>101.0800018310547</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>101.0999984741211</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>100.6500015258789</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>100.8600006103516</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>100.8600006103516</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>4582708</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>100.870002746582</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>100.870002746582</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>100.4000015258789</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>100.6999969482422</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>4072836</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -101325,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101379,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101433,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101487,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101541,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101595,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101649,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101149,7 +101149,7 @@
         <v>26</v>
       </c>
       <c r="O1798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1798" t="n">
         <v>0</v>
@@ -101317,7 +101317,7 @@
         <v>26</v>
       </c>
       <c r="O1801" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1801" t="n">
         <v>0</v>
@@ -101664,6 +101664,384 @@
       <c r="R1807" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>101.0100021362305</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>101.120002746582</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>99.88999938964844</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>100.1999969482422</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>100.5299987792969</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>100.0599975585938</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>100.0800018310547</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>100.0800018310547</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>2382553</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>100.129997253418</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>100.8099975585938</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>100.0199966430664</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>100.2900009155273</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>100.2900009155273</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>2909583</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>100.2900009155273</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>100.3499984741211</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>100.0800018310547</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>1693453</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>100.129997253418</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>100.2799987792969</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>100.0199966430664</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>100.2099990844727</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>100.2099990844727</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>1590336</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>100.25</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>100.3099975585938</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>100.0500030517578</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>100.0899963378906</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>100.0899963378906</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>3089983</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>100.2300033569336</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>100.0100021362305</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>100.0999984741211</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>2305900</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/NHPC.NS.xlsx
+++ b/stock_historical_data/60m/NHPC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1814"/>
+  <dimension ref="A1:R1821"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101717,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101771,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101825,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101879,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101933,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>2</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101987,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102041,7 +102053,387 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>100.3499984741211</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>100.6800003051758</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>99.91000366210938</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>100</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>100</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>100.1500015258789</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>99.80999755859375</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>99.84999847412109</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>3444762</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>99.83000183105469</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>99.87999725341797</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>99.19999694824219</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>99.22000122070312</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>99.22000122070312</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>3618759</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>99.22000122070312</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>99.37000274658203</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>98.88999938964844</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>4305588</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>99</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>99.40000152587891</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>98.98000335693359</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>99.27999877929688</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>99.27999877929688</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>3054766</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>99.29000091552734</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>99.44999694824219</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>99.01000213623047</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>99.05000305175781</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>99.05000305175781</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>3396928</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>99.05999755859375</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>99.13999938964844</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>98.83000183105469</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>99</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>99</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>3448678</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
